--- a/results/mp/logistic/corona/confidence/210/masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,22 +46,25 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>problem</t>
   </si>
   <si>
     <t>drop</t>
@@ -70,214 +73,211 @@
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>falling</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>to</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
 </sst>
 </file>
@@ -643,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,16 +725,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8013698630136986</v>
+        <v>0.7876712328767124</v>
       </c>
       <c r="C4">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D4">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7241379310344828</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6756756756756757</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.8433420365535248</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L9">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M9">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6333333333333333</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,31 +1072,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L10">
+        <v>47</v>
+      </c>
+      <c r="M10">
+        <v>47</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>11</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L10">
-        <v>48</v>
-      </c>
-      <c r="M10">
-        <v>48</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5932203389830508</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C12">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.8048780487804879</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5686274509803921</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.8028169014084507</v>
+        <v>0.79375</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5641025641025641</v>
+        <v>0.5387596899224806</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,31 +1272,31 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>238</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L14">
+        <v>65</v>
+      </c>
+      <c r="M14">
+        <v>65</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14">
-        <v>0.796875</v>
-      </c>
-      <c r="L14">
-        <v>102</v>
-      </c>
-      <c r="M14">
-        <v>102</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5503875968992248</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C15">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.7878787878787878</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,37 +1354,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4871794871794872</v>
+        <v>0.525</v>
       </c>
       <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>19</v>
       </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>20</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.7872340425531915</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,37 +1404,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4832214765100671</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="D17">
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>72</v>
       </c>
-      <c r="D17">
-        <v>72</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>77</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.78125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4388888888888889</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C18">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.7692307692307693</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3928571428571428</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.7407407407407407</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1604,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3454545454545455</v>
+        <v>0.4138888888888889</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1654,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3454545454545455</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.7209302325581395</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1704,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2666666666666667</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1754,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2619047619047619</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.6825396825396826</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,13 +1804,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1662198391420912</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>311</v>
+        <v>57</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25">
         <v>0.6785714285714286</v>
@@ -1854,13 +1854,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.08333333333333333</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26">
         <v>0.675</v>
@@ -1904,37 +1904,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01637931034482759</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E27">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>1141</v>
+        <v>272</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>0.64</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,37 +1954,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01559207753898019</v>
+        <v>0.01643570737995488</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F28">
-        <v>0.86</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2336</v>
+        <v>3052</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K28">
-        <v>0.6176470588235294</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L28">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,13 +2004,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01549886987407168</v>
+        <v>0.01403837154890033</v>
       </c>
       <c r="C29">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>0.17</v>
@@ -2022,19 +2022,19 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>3049</v>
+        <v>2107</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K29">
-        <v>0.6153846153846154</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,49 +2054,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01170411985018727</v>
+        <v>0.0134964150147617</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E30">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F30">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2111</v>
+        <v>2339</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K30">
-        <v>0.6108786610878661</v>
+        <v>0.6054421768707483</v>
       </c>
       <c r="L30">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="M30">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,37 +2104,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.009134406263592866</v>
+        <v>0.01130434782608696</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E31">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="F31">
-        <v>0.6799999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31">
-        <v>0.6101694915254238</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>115</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,37 +2154,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.007593457943925234</v>
+        <v>0.007797270955165692</v>
       </c>
       <c r="C32">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E32">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="F32">
-        <v>0.5700000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>5097</v>
+        <v>5090</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K32">
-        <v>0.5757575757575758</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,37 +2204,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006861755802219979</v>
+        <v>0.006507088078085057</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E33">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="F33">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>4921</v>
+        <v>4275</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K33">
-        <v>0.574468085106383</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L33">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2254,87 +2254,63 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006747324336900884</v>
+        <v>0.006243705941591138</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E34">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F34">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>4269</v>
+        <v>4934</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>25</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K34">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L34">
-        <v>40</v>
-      </c>
-      <c r="M34">
-        <v>40</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.006649778340721976</v>
-      </c>
-      <c r="C35">
-        <v>21</v>
-      </c>
-      <c r="D35">
-        <v>64</v>
-      </c>
-      <c r="E35">
-        <v>0.67</v>
-      </c>
-      <c r="F35">
-        <v>0.33</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>3137</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="K35">
-        <v>0.5476190476190477</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2346,21 +2322,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="J36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K36">
-        <v>0.5280898876404494</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L36">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M36">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2372,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K37">
-        <v>0.5111111111111111</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2398,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K38">
-        <v>0.4901960784313725</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2424,21 +2400,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K39">
-        <v>0.3698630136986301</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2450,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K40">
-        <v>0.358974358974359</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2476,15 +2452,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K41">
-        <v>0.3220338983050847</v>
+        <v>0.296875</v>
       </c>
       <c r="L41">
         <v>19</v>
@@ -2502,163 +2478,163 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K42">
-        <v>0.3125</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K43">
-        <v>0.0347985347985348</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M43">
         <v>20</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>527</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K44">
-        <v>0.02921535893155259</v>
+        <v>0.04021937842778794</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1163</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K45">
-        <v>0.01765447667087012</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N45">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="O45">
-        <v>0.22</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>1558</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K46">
-        <v>0.01352874859075535</v>
+        <v>0.01171058134671685</v>
       </c>
       <c r="L46">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N46">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="O46">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2625</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="K47">
-        <v>0.01352201257861635</v>
+        <v>0.0112739571589628</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="N47">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="O47">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>3137</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2666,25 +2642,25 @@
         <v>86</v>
       </c>
       <c r="K48">
-        <v>0.01256281407035176</v>
+        <v>0.01070399341292713</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N48">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
       <c r="O48">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>2358</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2692,51 +2668,51 @@
         <v>87</v>
       </c>
       <c r="K49">
-        <v>0.009042334566378957</v>
+        <v>0.00940733772342427</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N49">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="O49">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2411</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K50">
-        <v>0.00826279725916969</v>
+        <v>0.006829268292682927</v>
       </c>
       <c r="L50">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M50">
         <v>75</v>
       </c>
       <c r="N50">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="O50">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>4921</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2744,51 +2720,51 @@
         <v>39</v>
       </c>
       <c r="K51">
-        <v>0.006978367062107467</v>
+        <v>0.006243705941591138</v>
       </c>
       <c r="L51">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N51">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O51">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>4269</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K52">
-        <v>0.005657432696059305</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N52">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="O52">
-        <v>0.5700000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>5097</v>
+        <v>4275</v>
       </c>
     </row>
   </sheetData>
